--- a/rdm-rest/src/test/resources/testConflicts/oldRefToData.xlsx
+++ b/rdm-rest/src/test/resources/testConflicts/oldRefToData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>code3</t>
+  </si>
+  <si>
+    <t>code5</t>
+  </si>
+  <si>
+    <t>code6</t>
   </si>
 </sst>
 </file>
@@ -76,11 +82,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -122,6 +128,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
